--- a/data/pca/factorExposure/factorExposure_2012-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01800988730601305</v>
+        <v>0.01666971893915205</v>
       </c>
       <c r="C2">
-        <v>0.03742096270675044</v>
+        <v>-0.02924409966926389</v>
       </c>
       <c r="D2">
-        <v>0.01399540731477179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0005975915304076247</v>
+      </c>
+      <c r="E2">
+        <v>-0.00969042004974408</v>
+      </c>
+      <c r="F2">
+        <v>0.009630830113538135</v>
+      </c>
+      <c r="G2">
+        <v>0.007998381306202904</v>
+      </c>
+      <c r="H2">
+        <v>-0.05660062586620397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0744269419631747</v>
+        <v>0.0880327347731895</v>
       </c>
       <c r="C4">
-        <v>0.05464191781922822</v>
+        <v>-0.03919252630079104</v>
       </c>
       <c r="D4">
-        <v>-0.07823413344190794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06477919115800315</v>
+      </c>
+      <c r="E4">
+        <v>-0.01659411188163411</v>
+      </c>
+      <c r="F4">
+        <v>0.03043447866544944</v>
+      </c>
+      <c r="G4">
+        <v>0.009193474546577846</v>
+      </c>
+      <c r="H4">
+        <v>0.03963494680134035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1085981529987118</v>
+        <v>0.1198396922441074</v>
       </c>
       <c r="C6">
-        <v>0.0580748525165283</v>
+        <v>-0.03560601485461767</v>
       </c>
       <c r="D6">
-        <v>0.009257225450118894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008551715239789643</v>
+      </c>
+      <c r="E6">
+        <v>0.006108833453973442</v>
+      </c>
+      <c r="F6">
+        <v>0.05774081844442966</v>
+      </c>
+      <c r="G6">
+        <v>0.02563857865459835</v>
+      </c>
+      <c r="H6">
+        <v>-0.1047087572780901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04870963999271524</v>
+        <v>0.0641355409575038</v>
       </c>
       <c r="C7">
-        <v>0.02784497603847545</v>
+        <v>-0.02035885513694905</v>
       </c>
       <c r="D7">
-        <v>-0.04650472727039989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04579206453542561</v>
+      </c>
+      <c r="E7">
+        <v>-0.03881662594737961</v>
+      </c>
+      <c r="F7">
+        <v>0.03181520627478455</v>
+      </c>
+      <c r="G7">
+        <v>-0.04036961034998922</v>
+      </c>
+      <c r="H7">
+        <v>0.01353063694773927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0372231965081698</v>
+        <v>0.04064302495310888</v>
       </c>
       <c r="C8">
-        <v>0.01221887247530646</v>
+        <v>-0.007803761971343923</v>
       </c>
       <c r="D8">
-        <v>-0.0475948436389437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02045761864002226</v>
+      </c>
+      <c r="E8">
+        <v>-0.03588982743243092</v>
+      </c>
+      <c r="F8">
+        <v>0.04817087074313149</v>
+      </c>
+      <c r="G8">
+        <v>0.04769979954948199</v>
+      </c>
+      <c r="H8">
+        <v>-0.006808736768809384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06711264848556223</v>
+        <v>0.07927364122837945</v>
       </c>
       <c r="C9">
-        <v>0.04377179865550924</v>
+        <v>-0.02925791997933177</v>
       </c>
       <c r="D9">
-        <v>-0.07282673901466447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06343473034904304</v>
+      </c>
+      <c r="E9">
+        <v>-0.03961123957808518</v>
+      </c>
+      <c r="F9">
+        <v>0.0305254598350121</v>
+      </c>
+      <c r="G9">
+        <v>0.008152108839664695</v>
+      </c>
+      <c r="H9">
+        <v>0.04965884262428524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02821491095483721</v>
+        <v>0.0342236435254718</v>
       </c>
       <c r="C10">
-        <v>0.03353051854648714</v>
+        <v>-0.04128478232086097</v>
       </c>
       <c r="D10">
-        <v>0.1798403374611739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.170825958533039</v>
+      </c>
+      <c r="E10">
+        <v>-0.04940765432469948</v>
+      </c>
+      <c r="F10">
+        <v>0.04333282842116754</v>
+      </c>
+      <c r="G10">
+        <v>-0.04321180101268628</v>
+      </c>
+      <c r="H10">
+        <v>-0.03493066570622139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07008856666181616</v>
+        <v>0.07650025843900286</v>
       </c>
       <c r="C11">
-        <v>0.04817996269743602</v>
+        <v>-0.02850233042890548</v>
       </c>
       <c r="D11">
-        <v>-0.05518380927702504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06236622806185327</v>
+      </c>
+      <c r="E11">
+        <v>0.0006025536769062576</v>
+      </c>
+      <c r="F11">
+        <v>0.02632429144550809</v>
+      </c>
+      <c r="G11">
+        <v>-0.004534853365070223</v>
+      </c>
+      <c r="H11">
+        <v>0.09256100195011344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05772308330766567</v>
+        <v>0.06741245558796409</v>
       </c>
       <c r="C12">
-        <v>0.052642176577661</v>
+        <v>-0.03713117675191083</v>
       </c>
       <c r="D12">
-        <v>-0.04513621599612688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04778744153267907</v>
+      </c>
+      <c r="E12">
+        <v>-0.01485781001340109</v>
+      </c>
+      <c r="F12">
+        <v>0.01931109023200768</v>
+      </c>
+      <c r="G12">
+        <v>0.0004137278522726048</v>
+      </c>
+      <c r="H12">
+        <v>0.04959051315988452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05986409174369131</v>
+        <v>0.06517825242641162</v>
       </c>
       <c r="C13">
-        <v>0.04117560415196862</v>
+        <v>-0.02574861796440904</v>
       </c>
       <c r="D13">
-        <v>-0.06338023869198821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04210983061106777</v>
+      </c>
+      <c r="E13">
+        <v>-0.01541969608353489</v>
+      </c>
+      <c r="F13">
+        <v>-1.058088584030677e-05</v>
+      </c>
+      <c r="G13">
+        <v>-0.008910542645899092</v>
+      </c>
+      <c r="H13">
+        <v>0.04101879780155737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03250632035653043</v>
+        <v>0.04104162959301929</v>
       </c>
       <c r="C14">
-        <v>0.03223556942310724</v>
+        <v>-0.02841320905798852</v>
       </c>
       <c r="D14">
-        <v>0.0005811883959206089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.005288868532770071</v>
+      </c>
+      <c r="E14">
+        <v>-0.03215081220315939</v>
+      </c>
+      <c r="F14">
+        <v>0.01007242963025635</v>
+      </c>
+      <c r="G14">
+        <v>0.01139541040601793</v>
+      </c>
+      <c r="H14">
+        <v>0.05465637700638861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03840018870024499</v>
+        <v>0.03951871033554449</v>
       </c>
       <c r="C15">
-        <v>0.01010702257494438</v>
+        <v>-0.003031594200924336</v>
       </c>
       <c r="D15">
-        <v>-0.01788688759970957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003291679937823634</v>
+      </c>
+      <c r="E15">
+        <v>-0.04122673244856496</v>
+      </c>
+      <c r="F15">
+        <v>-0.007142129901898615</v>
+      </c>
+      <c r="G15">
+        <v>0.02750737237366658</v>
+      </c>
+      <c r="H15">
+        <v>0.03470902734074371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06087809693661094</v>
+        <v>0.07051906316424644</v>
       </c>
       <c r="C16">
-        <v>0.0440279731403245</v>
+        <v>-0.02900558123511155</v>
       </c>
       <c r="D16">
-        <v>-0.04508994154991988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06159741096864053</v>
+      </c>
+      <c r="E16">
+        <v>-0.008098252023845851</v>
+      </c>
+      <c r="F16">
+        <v>0.02369411520840766</v>
+      </c>
+      <c r="G16">
+        <v>-0.003870564661718687</v>
+      </c>
+      <c r="H16">
+        <v>0.05631719407981931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06396571873837897</v>
+        <v>0.06338241787537406</v>
       </c>
       <c r="C20">
-        <v>0.03261712010403954</v>
+        <v>-0.01395454479881787</v>
       </c>
       <c r="D20">
-        <v>-0.04834406865078779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0396195048586627</v>
+      </c>
+      <c r="E20">
+        <v>-0.03534767834884828</v>
+      </c>
+      <c r="F20">
+        <v>0.01629139927206289</v>
+      </c>
+      <c r="G20">
+        <v>0.01196801143028541</v>
+      </c>
+      <c r="H20">
+        <v>0.0451360658392057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02317692892458703</v>
+        <v>0.0246326799560832</v>
       </c>
       <c r="C21">
-        <v>-0.002302034216741875</v>
+        <v>0.009108048331393342</v>
       </c>
       <c r="D21">
-        <v>-0.02727299785406241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02810683920165621</v>
+      </c>
+      <c r="E21">
+        <v>-0.040682789983069</v>
+      </c>
+      <c r="F21">
+        <v>-0.01502135465958177</v>
+      </c>
+      <c r="G21">
+        <v>0.00952685360259499</v>
+      </c>
+      <c r="H21">
+        <v>-0.04795711413685166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07652976585125085</v>
+        <v>0.07221550271433157</v>
       </c>
       <c r="C22">
-        <v>0.06067788500359848</v>
+        <v>-0.03969854262855691</v>
       </c>
       <c r="D22">
-        <v>-0.1009387094327561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06294141534887565</v>
+      </c>
+      <c r="E22">
+        <v>-0.5620783723534098</v>
+      </c>
+      <c r="F22">
+        <v>-0.2515254118133911</v>
+      </c>
+      <c r="G22">
+        <v>-0.05795151552612449</v>
+      </c>
+      <c r="H22">
+        <v>-0.159680630877194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07751062933933409</v>
+        <v>0.07285165850767271</v>
       </c>
       <c r="C23">
-        <v>0.05960276585382099</v>
+        <v>-0.0384034143667162</v>
       </c>
       <c r="D23">
-        <v>-0.1025327806624696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06382680176469231</v>
+      </c>
+      <c r="E23">
+        <v>-0.5615499471349817</v>
+      </c>
+      <c r="F23">
+        <v>-0.2501173520478071</v>
+      </c>
+      <c r="G23">
+        <v>-0.05629100505632242</v>
+      </c>
+      <c r="H23">
+        <v>-0.1547574989533514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07120320272432999</v>
+        <v>0.08031449589795943</v>
       </c>
       <c r="C24">
-        <v>0.05282427185843475</v>
+        <v>-0.03487370768805095</v>
       </c>
       <c r="D24">
-        <v>-0.05727853317167086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05857395597917539</v>
+      </c>
+      <c r="E24">
+        <v>-0.01806299619829706</v>
+      </c>
+      <c r="F24">
+        <v>0.03371791630837261</v>
+      </c>
+      <c r="G24">
+        <v>0.005975489296627689</v>
+      </c>
+      <c r="H24">
+        <v>0.06405928368808742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07066391918230272</v>
+        <v>0.07771375368509333</v>
       </c>
       <c r="C25">
-        <v>0.05822883385071542</v>
+        <v>-0.03946546938069408</v>
       </c>
       <c r="D25">
-        <v>-0.06523393506375136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05115433450456719</v>
+      </c>
+      <c r="E25">
+        <v>-0.02099831251204541</v>
+      </c>
+      <c r="F25">
+        <v>0.02592444526277126</v>
+      </c>
+      <c r="G25">
+        <v>0.01823547172927321</v>
+      </c>
+      <c r="H25">
+        <v>0.06265997602988589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04446518271697075</v>
+        <v>0.04759353245547461</v>
       </c>
       <c r="C26">
-        <v>0.01055755037792681</v>
+        <v>-0.002582901501251898</v>
       </c>
       <c r="D26">
-        <v>-0.013119129489202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0176832954473628</v>
+      </c>
+      <c r="E26">
+        <v>-0.05275594961004071</v>
+      </c>
+      <c r="F26">
+        <v>0.01806119801118755</v>
+      </c>
+      <c r="G26">
+        <v>-0.007468181923678186</v>
+      </c>
+      <c r="H26">
+        <v>0.05827233167030064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05096018972707572</v>
+        <v>0.06140696748964636</v>
       </c>
       <c r="C28">
-        <v>0.07401804265423703</v>
+        <v>-0.08320510586367534</v>
       </c>
       <c r="D28">
-        <v>0.3171268955335428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3082804572841819</v>
+      </c>
+      <c r="E28">
+        <v>-0.02513600211338476</v>
+      </c>
+      <c r="F28">
+        <v>0.0559021126454914</v>
+      </c>
+      <c r="G28">
+        <v>0.02934333631569557</v>
+      </c>
+      <c r="H28">
+        <v>-0.04401664230070532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03978407653302072</v>
+        <v>0.04783554653645648</v>
       </c>
       <c r="C29">
-        <v>0.03109762842566466</v>
+        <v>-0.02568336569503621</v>
       </c>
       <c r="D29">
-        <v>0.001336606026676345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005533466857621428</v>
+      </c>
+      <c r="E29">
+        <v>-0.05737132183841075</v>
+      </c>
+      <c r="F29">
+        <v>-0.003549890612568368</v>
+      </c>
+      <c r="G29">
+        <v>-0.005601783759048474</v>
+      </c>
+      <c r="H29">
+        <v>0.0796436029729763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1273578721991952</v>
+        <v>0.1327964319260525</v>
       </c>
       <c r="C30">
-        <v>0.09684389005842538</v>
+        <v>-0.06552986745657748</v>
       </c>
       <c r="D30">
-        <v>-0.1123095709865536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06835869773856169</v>
+      </c>
+      <c r="E30">
+        <v>-0.08418506279817656</v>
+      </c>
+      <c r="F30">
+        <v>-0.02372909286775182</v>
+      </c>
+      <c r="G30">
+        <v>0.06991817099358635</v>
+      </c>
+      <c r="H30">
+        <v>-0.04893995688210406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04236367525666535</v>
+        <v>0.04892425085557983</v>
       </c>
       <c r="C31">
-        <v>0.02255452831660888</v>
+        <v>-0.01459169238130206</v>
       </c>
       <c r="D31">
-        <v>-0.02475492646367418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02453967923829298</v>
+      </c>
+      <c r="E31">
+        <v>-0.02963197680798984</v>
+      </c>
+      <c r="F31">
+        <v>0.008121484758704009</v>
+      </c>
+      <c r="G31">
+        <v>-0.02393517905282001</v>
+      </c>
+      <c r="H31">
+        <v>0.06421789707826962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03553096693348116</v>
+        <v>0.03778263867875934</v>
       </c>
       <c r="C32">
-        <v>0.02478642289187294</v>
+        <v>-0.01857328340922305</v>
       </c>
       <c r="D32">
-        <v>-0.0260852023055235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01209544732441327</v>
+      </c>
+      <c r="E32">
+        <v>-0.06511415057823673</v>
+      </c>
+      <c r="F32">
+        <v>-0.02101155026207281</v>
+      </c>
+      <c r="G32">
+        <v>0.03258901400286245</v>
+      </c>
+      <c r="H32">
+        <v>0.06795702613133003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08231143664092683</v>
+        <v>0.09551946874443541</v>
       </c>
       <c r="C33">
-        <v>0.04502274880747945</v>
+        <v>-0.02726436261073154</v>
       </c>
       <c r="D33">
-        <v>-0.06506496367761064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04873383845368811</v>
+      </c>
+      <c r="E33">
+        <v>-0.01587271318195178</v>
+      </c>
+      <c r="F33">
+        <v>0.0002768182958110886</v>
+      </c>
+      <c r="G33">
+        <v>-0.009396901464790953</v>
+      </c>
+      <c r="H33">
+        <v>0.06792225168490292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05672711133573895</v>
+        <v>0.06233537623457289</v>
       </c>
       <c r="C34">
-        <v>0.02984759524278356</v>
+        <v>-0.01431077236185824</v>
       </c>
       <c r="D34">
-        <v>-0.05270318009825228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05347144458332438</v>
+      </c>
+      <c r="E34">
+        <v>-0.01091724231740983</v>
+      </c>
+      <c r="F34">
+        <v>0.01733131118789339</v>
+      </c>
+      <c r="G34">
+        <v>0.005620390508993363</v>
+      </c>
+      <c r="H34">
+        <v>0.05773540330378756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0365809444453868</v>
+        <v>0.04024581213457948</v>
       </c>
       <c r="C35">
-        <v>0.009540100027274154</v>
+        <v>-0.004374759305085471</v>
       </c>
       <c r="D35">
-        <v>-0.007161402221615892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008094633608134881</v>
+      </c>
+      <c r="E35">
+        <v>-0.01794421066414791</v>
+      </c>
+      <c r="F35">
+        <v>-0.02064636465129261</v>
+      </c>
+      <c r="G35">
+        <v>-0.01206285329869885</v>
+      </c>
+      <c r="H35">
+        <v>0.0222404571065187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02048713963360154</v>
+        <v>0.02734856890200341</v>
       </c>
       <c r="C36">
-        <v>0.01786171244486533</v>
+        <v>-0.01411475093022891</v>
       </c>
       <c r="D36">
-        <v>-0.01597321269458074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01259609947789386</v>
+      </c>
+      <c r="E36">
+        <v>-0.04520193796813315</v>
+      </c>
+      <c r="F36">
+        <v>0.01129345980731529</v>
+      </c>
+      <c r="G36">
+        <v>-0.009390135290988132</v>
+      </c>
+      <c r="H36">
+        <v>0.04414437410194468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03945333929678307</v>
+        <v>0.04422730887717092</v>
       </c>
       <c r="C38">
-        <v>0.003858876984951788</v>
+        <v>0.001230908340174122</v>
       </c>
       <c r="D38">
-        <v>-0.01772918330145529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01680768833705892</v>
+      </c>
+      <c r="E38">
+        <v>-0.05358277169468954</v>
+      </c>
+      <c r="F38">
+        <v>-0.01845328931025279</v>
+      </c>
+      <c r="G38">
+        <v>0.01329218408938134</v>
+      </c>
+      <c r="H38">
+        <v>0.02639260984513452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08960767381676457</v>
+        <v>0.1023319715523275</v>
       </c>
       <c r="C39">
-        <v>0.07335793688892812</v>
+        <v>-0.05178287372193582</v>
       </c>
       <c r="D39">
-        <v>-0.06589186037838553</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06349036825025201</v>
+      </c>
+      <c r="E39">
+        <v>-0.001245542964954829</v>
+      </c>
+      <c r="F39">
+        <v>0.007184737965744917</v>
+      </c>
+      <c r="G39">
+        <v>0.03398440314295847</v>
+      </c>
+      <c r="H39">
+        <v>0.05337418986789818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07430327716883042</v>
+        <v>0.07202995211867202</v>
       </c>
       <c r="C40">
-        <v>0.04131446445318761</v>
+        <v>-0.02010965622787293</v>
       </c>
       <c r="D40">
-        <v>0.005003810945363531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.009763389888026884</v>
+      </c>
+      <c r="E40">
+        <v>-0.01683203568077277</v>
+      </c>
+      <c r="F40">
+        <v>-0.05520871026555904</v>
+      </c>
+      <c r="G40">
+        <v>0.03841439502819649</v>
+      </c>
+      <c r="H40">
+        <v>-0.1048055737899805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04053556291927221</v>
+        <v>0.04356833668145949</v>
       </c>
       <c r="C41">
-        <v>0.005726267496892206</v>
+        <v>0.00161721361137494</v>
       </c>
       <c r="D41">
-        <v>-0.03801848418943261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03397943884263079</v>
+      </c>
+      <c r="E41">
+        <v>-0.004155039972936057</v>
+      </c>
+      <c r="F41">
+        <v>-0.01748809329818918</v>
+      </c>
+      <c r="G41">
+        <v>0.01035936041413118</v>
+      </c>
+      <c r="H41">
+        <v>0.03241098250493044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04691055393932792</v>
+        <v>0.05761514436452977</v>
       </c>
       <c r="C43">
-        <v>0.02619258136086398</v>
+        <v>-0.01776777997935378</v>
       </c>
       <c r="D43">
-        <v>-0.01830671291684448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02489946422969861</v>
+      </c>
+      <c r="E43">
+        <v>-0.02025001653642034</v>
+      </c>
+      <c r="F43">
+        <v>0.009331140947939132</v>
+      </c>
+      <c r="G43">
+        <v>-0.01422754608438257</v>
+      </c>
+      <c r="H43">
+        <v>0.05477896743370861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09366397873846903</v>
+        <v>0.09463369792373369</v>
       </c>
       <c r="C44">
-        <v>0.09483294497259116</v>
+        <v>-0.06559188503915618</v>
       </c>
       <c r="D44">
-        <v>-0.07982813746602305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06014664430993299</v>
+      </c>
+      <c r="E44">
+        <v>-0.09571068919058628</v>
+      </c>
+      <c r="F44">
+        <v>0.03541312180987149</v>
+      </c>
+      <c r="G44">
+        <v>0.03107310606315951</v>
+      </c>
+      <c r="H44">
+        <v>0.008810842187667976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0250437381934505</v>
+        <v>0.03325551403969904</v>
       </c>
       <c r="C46">
-        <v>0.01529572842984076</v>
+        <v>-0.01213341066914091</v>
       </c>
       <c r="D46">
-        <v>-0.01842688630971951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03131879225247876</v>
+      </c>
+      <c r="E46">
+        <v>-0.03053498208222622</v>
+      </c>
+      <c r="F46">
+        <v>0.01306660601921198</v>
+      </c>
+      <c r="G46">
+        <v>0.001715219617086895</v>
+      </c>
+      <c r="H46">
+        <v>0.03811632053194609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03064176795772472</v>
+        <v>0.03812858435634187</v>
       </c>
       <c r="C47">
-        <v>0.02482728049764848</v>
+        <v>-0.01966537120811316</v>
       </c>
       <c r="D47">
-        <v>-0.00995369855866828</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008922272657760848</v>
+      </c>
+      <c r="E47">
+        <v>-0.05169379114005965</v>
+      </c>
+      <c r="F47">
+        <v>0.006014504348142012</v>
+      </c>
+      <c r="G47">
+        <v>-0.03805127183412709</v>
+      </c>
+      <c r="H47">
+        <v>0.02630389881924856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03182178452950164</v>
+        <v>0.03768820081737911</v>
       </c>
       <c r="C48">
-        <v>0.01796847592591948</v>
+        <v>-0.01177993100569114</v>
       </c>
       <c r="D48">
-        <v>-0.03025817152657047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01783763239553044</v>
+      </c>
+      <c r="E48">
+        <v>-0.04317284790286154</v>
+      </c>
+      <c r="F48">
+        <v>-0.0009328330818599457</v>
+      </c>
+      <c r="G48">
+        <v>0.009725464782963624</v>
+      </c>
+      <c r="H48">
+        <v>0.0415336923987733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1633902531746425</v>
+        <v>0.1903657881597962</v>
       </c>
       <c r="C49">
-        <v>0.06539376063983267</v>
+        <v>-0.03593978706851769</v>
       </c>
       <c r="D49">
-        <v>0.02222373356144701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03159834997720495</v>
+      </c>
+      <c r="E49">
+        <v>0.1429124559883838</v>
+      </c>
+      <c r="F49">
+        <v>0.07327627450252143</v>
+      </c>
+      <c r="G49">
+        <v>-0.06322994304959574</v>
+      </c>
+      <c r="H49">
+        <v>-0.2418800141421186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03895374714764066</v>
+        <v>0.04606661605730682</v>
       </c>
       <c r="C50">
-        <v>0.02614884995288357</v>
+        <v>-0.01882880744610902</v>
       </c>
       <c r="D50">
-        <v>-0.03436559464233657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02874690760764349</v>
+      </c>
+      <c r="E50">
+        <v>-0.05248681459026502</v>
+      </c>
+      <c r="F50">
+        <v>0.008114871546617042</v>
+      </c>
+      <c r="G50">
+        <v>-0.01982942701000979</v>
+      </c>
+      <c r="H50">
+        <v>0.06126196748878088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02521757676541143</v>
+        <v>0.02956281055724598</v>
       </c>
       <c r="C51">
-        <v>0.007736142244467887</v>
+        <v>-0.003253328881251843</v>
       </c>
       <c r="D51">
-        <v>-0.01463310700109675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01307557972376216</v>
+      </c>
+      <c r="E51">
+        <v>-0.0148574436340997</v>
+      </c>
+      <c r="F51">
+        <v>0.02115232551539166</v>
+      </c>
+      <c r="G51">
+        <v>0.0005750183114844961</v>
+      </c>
+      <c r="H51">
+        <v>-0.008359040373336074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.152049645640482</v>
+        <v>0.1623675632335909</v>
       </c>
       <c r="C53">
-        <v>0.0822316026052113</v>
+        <v>-0.05339249363191095</v>
       </c>
       <c r="D53">
-        <v>-0.01791719166196305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01822425886298769</v>
+      </c>
+      <c r="E53">
+        <v>0.02549320226823511</v>
+      </c>
+      <c r="F53">
+        <v>0.01990433564618815</v>
+      </c>
+      <c r="G53">
+        <v>-0.003475524680371149</v>
+      </c>
+      <c r="H53">
+        <v>0.1683150237345897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0558676744475424</v>
+        <v>0.05808321082039671</v>
       </c>
       <c r="C54">
-        <v>0.02702549914978563</v>
+        <v>-0.01500865302546718</v>
       </c>
       <c r="D54">
-        <v>-0.02161701048010259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01635915591584331</v>
+      </c>
+      <c r="E54">
+        <v>-0.05117458414467616</v>
+      </c>
+      <c r="F54">
+        <v>0.0005203211716832658</v>
+      </c>
+      <c r="G54">
+        <v>0.01037365988370513</v>
+      </c>
+      <c r="H54">
+        <v>0.04946917006246644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09970259171673482</v>
+        <v>0.103115707311501</v>
       </c>
       <c r="C55">
-        <v>0.05628705308999047</v>
+        <v>-0.03462516658599822</v>
       </c>
       <c r="D55">
-        <v>-0.02209538668795369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02391919665189611</v>
+      </c>
+      <c r="E55">
+        <v>-0.0201474208944822</v>
+      </c>
+      <c r="F55">
+        <v>0.01443617008717017</v>
+      </c>
+      <c r="G55">
+        <v>0.005035024597798104</v>
+      </c>
+      <c r="H55">
+        <v>0.1473009828709895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1469478018473595</v>
+        <v>0.1600709931719086</v>
       </c>
       <c r="C56">
-        <v>0.09362500038316192</v>
+        <v>-0.06437893800442607</v>
       </c>
       <c r="D56">
-        <v>-0.01717528991157649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0197323183639755</v>
+      </c>
+      <c r="E56">
+        <v>0.02198761799752557</v>
+      </c>
+      <c r="F56">
+        <v>0.03848021892075418</v>
+      </c>
+      <c r="G56">
+        <v>-0.01161863980649558</v>
+      </c>
+      <c r="H56">
+        <v>0.1740706636850159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1257762782102266</v>
+        <v>0.09805450534949811</v>
       </c>
       <c r="C58">
-        <v>0.008550302835616143</v>
+        <v>0.03463318949219069</v>
       </c>
       <c r="D58">
-        <v>-0.03165983334215568</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03743040268031227</v>
+      </c>
+      <c r="E58">
+        <v>-0.1699971365942786</v>
+      </c>
+      <c r="F58">
+        <v>-0.02069753063365087</v>
+      </c>
+      <c r="G58">
+        <v>-0.06426489040967191</v>
+      </c>
+      <c r="H58">
+        <v>-0.2298499995061412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1159632789048731</v>
+        <v>0.1359137431090813</v>
       </c>
       <c r="C59">
-        <v>0.07788641656013838</v>
+        <v>-0.08341384441771094</v>
       </c>
       <c r="D59">
-        <v>0.3458490076040001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3639973901478665</v>
+      </c>
+      <c r="E59">
+        <v>-0.0215241730674025</v>
+      </c>
+      <c r="F59">
+        <v>0.01869031834145122</v>
+      </c>
+      <c r="G59">
+        <v>-0.03450413566377523</v>
+      </c>
+      <c r="H59">
+        <v>0.01042130544904698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2034643217216929</v>
+        <v>0.2323190394974119</v>
       </c>
       <c r="C60">
-        <v>0.1077644960352185</v>
+        <v>-0.06966513804643835</v>
       </c>
       <c r="D60">
-        <v>0.001706515521278028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03803596652808643</v>
+      </c>
+      <c r="E60">
+        <v>0.09238662024526942</v>
+      </c>
+      <c r="F60">
+        <v>0.07640679995703367</v>
+      </c>
+      <c r="G60">
+        <v>0.02022911578276798</v>
+      </c>
+      <c r="H60">
+        <v>-0.167329399644173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07853761797131499</v>
+        <v>0.0881706789304539</v>
       </c>
       <c r="C61">
-        <v>0.05228800618976592</v>
+        <v>-0.03665069649453941</v>
       </c>
       <c r="D61">
-        <v>-0.05053725738759532</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04385811655505664</v>
+      </c>
+      <c r="E61">
+        <v>0.001217859574792886</v>
+      </c>
+      <c r="F61">
+        <v>0.003946219826787963</v>
+      </c>
+      <c r="G61">
+        <v>0.0001821839766826302</v>
+      </c>
+      <c r="H61">
+        <v>0.07076318921128112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1282049711418661</v>
+        <v>0.1391442525774289</v>
       </c>
       <c r="C62">
-        <v>0.06800451729024636</v>
+        <v>-0.04240575713611106</v>
       </c>
       <c r="D62">
-        <v>-0.02172292533613066</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0297345542470691</v>
+      </c>
+      <c r="E62">
+        <v>0.06018142250271157</v>
+      </c>
+      <c r="F62">
+        <v>0.02085256032546201</v>
+      </c>
+      <c r="G62">
+        <v>0.02660502221253797</v>
+      </c>
+      <c r="H62">
+        <v>0.1868577705578736</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05076443073147339</v>
+        <v>0.05042089337688636</v>
       </c>
       <c r="C63">
-        <v>0.02655855624387485</v>
+        <v>-0.01430654314929248</v>
       </c>
       <c r="D63">
-        <v>-0.02282734638239496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02060492779648146</v>
+      </c>
+      <c r="E63">
+        <v>-0.0517851165234129</v>
+      </c>
+      <c r="F63">
+        <v>-0.01583397711586408</v>
+      </c>
+      <c r="G63">
+        <v>0.02925920899867254</v>
+      </c>
+      <c r="H63">
+        <v>0.05941899664244311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1049452308052244</v>
+        <v>0.1087807375717511</v>
       </c>
       <c r="C64">
-        <v>0.02560264926560762</v>
+        <v>-0.00461918825303342</v>
       </c>
       <c r="D64">
-        <v>-0.06170102293675723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04145851220589906</v>
+      </c>
+      <c r="E64">
+        <v>-0.04665202023380633</v>
+      </c>
+      <c r="F64">
+        <v>0.03947589822799191</v>
+      </c>
+      <c r="G64">
+        <v>0.04948669422225977</v>
+      </c>
+      <c r="H64">
+        <v>0.05504389900893249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1209737587821395</v>
+        <v>0.1270183188428018</v>
       </c>
       <c r="C65">
-        <v>0.06322837267878408</v>
+        <v>-0.04033603127504543</v>
       </c>
       <c r="D65">
-        <v>0.02517449967313893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0007770998434666825</v>
+      </c>
+      <c r="E65">
+        <v>-0.01189376802292098</v>
+      </c>
+      <c r="F65">
+        <v>0.06178678770831843</v>
+      </c>
+      <c r="G65">
+        <v>0.05316461478635014</v>
+      </c>
+      <c r="H65">
+        <v>-0.1331829855403614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1407956752972514</v>
+        <v>0.1538392650388871</v>
       </c>
       <c r="C66">
-        <v>0.07868356599538036</v>
+        <v>-0.04801167067113379</v>
       </c>
       <c r="D66">
-        <v>-0.1206619491582669</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1003630333632214</v>
+      </c>
+      <c r="E66">
+        <v>0.02807989689282147</v>
+      </c>
+      <c r="F66">
+        <v>0.01781654276020083</v>
+      </c>
+      <c r="G66">
+        <v>0.04317489455243487</v>
+      </c>
+      <c r="H66">
+        <v>0.1307981088703425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07183558372433292</v>
+        <v>0.08347050298434382</v>
       </c>
       <c r="C67">
-        <v>0.01480172944335363</v>
+        <v>-0.005174641809269674</v>
       </c>
       <c r="D67">
-        <v>-0.02257864374667674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03089155808208988</v>
+      </c>
+      <c r="E67">
+        <v>-0.02504041481586801</v>
+      </c>
+      <c r="F67">
+        <v>0.01287930047568648</v>
+      </c>
+      <c r="G67">
+        <v>-0.006296059848025931</v>
+      </c>
+      <c r="H67">
+        <v>0.02959630394623526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05789661536782247</v>
+        <v>0.0573674615844822</v>
       </c>
       <c r="C68">
-        <v>0.05098044008194082</v>
+        <v>-0.05632983086382831</v>
       </c>
       <c r="D68">
-        <v>0.2536395378714482</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2710601694312729</v>
+      </c>
+      <c r="E68">
+        <v>-0.03545177566493517</v>
+      </c>
+      <c r="F68">
+        <v>0.01603029190676934</v>
+      </c>
+      <c r="G68">
+        <v>-0.01552123139249564</v>
+      </c>
+      <c r="H68">
+        <v>0.00807316449716065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05330227100712165</v>
+        <v>0.05323880339852209</v>
       </c>
       <c r="C69">
-        <v>0.01925521730915808</v>
+        <v>-0.005588293653679644</v>
       </c>
       <c r="D69">
-        <v>-0.01609691596429864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0154208695159887</v>
+      </c>
+      <c r="E69">
+        <v>-0.02495047415447163</v>
+      </c>
+      <c r="F69">
+        <v>-0.01009895915130869</v>
+      </c>
+      <c r="G69">
+        <v>-0.01430542918471816</v>
+      </c>
+      <c r="H69">
+        <v>0.05288784760054033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005775389742241547</v>
+        <v>0.02645889607152491</v>
       </c>
       <c r="C70">
-        <v>-0.005069924407093676</v>
+        <v>-0.0002499143230341781</v>
       </c>
       <c r="D70">
-        <v>-0.0003176521835483715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002330558817846238</v>
+      </c>
+      <c r="E70">
+        <v>0.02389682438380951</v>
+      </c>
+      <c r="F70">
+        <v>0.03024914271429644</v>
+      </c>
+      <c r="G70">
+        <v>-0.02038460141305441</v>
+      </c>
+      <c r="H70">
+        <v>-0.04484230574449299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05716820067652407</v>
+        <v>0.05940479275661543</v>
       </c>
       <c r="C71">
-        <v>0.05061877839052965</v>
+        <v>-0.05964615536969491</v>
       </c>
       <c r="D71">
-        <v>0.2950673412690915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2959761134503781</v>
+      </c>
+      <c r="E71">
+        <v>-0.03245943182477273</v>
+      </c>
+      <c r="F71">
+        <v>0.04193136105941016</v>
+      </c>
+      <c r="G71">
+        <v>-0.005063877352210648</v>
+      </c>
+      <c r="H71">
+        <v>0.01269804940300897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1382059219242379</v>
+        <v>0.1477060196840058</v>
       </c>
       <c r="C72">
-        <v>0.06545058842015559</v>
+        <v>-0.0378669760580241</v>
       </c>
       <c r="D72">
-        <v>0.0005316635965444319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01268955507354916</v>
+      </c>
+      <c r="E72">
+        <v>0.1231819974243419</v>
+      </c>
+      <c r="F72">
+        <v>-0.1508347747026886</v>
+      </c>
+      <c r="G72">
+        <v>0.1144623069916256</v>
+      </c>
+      <c r="H72">
+        <v>0.02354898030611976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2732292549926224</v>
+        <v>0.2879876492239496</v>
       </c>
       <c r="C73">
-        <v>0.114244632035501</v>
+        <v>-0.04698244476563584</v>
       </c>
       <c r="D73">
-        <v>-0.0390123887155043</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09592297537753404</v>
+      </c>
+      <c r="E73">
+        <v>0.2098004001180071</v>
+      </c>
+      <c r="F73">
+        <v>0.124353260527479</v>
+      </c>
+      <c r="G73">
+        <v>-0.1820108570567545</v>
+      </c>
+      <c r="H73">
+        <v>-0.4708964076882006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07935180795469546</v>
+        <v>0.09205039458438034</v>
       </c>
       <c r="C74">
-        <v>0.07863888110156848</v>
+        <v>-0.05964257576541592</v>
       </c>
       <c r="D74">
-        <v>-0.01624094316446017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03185780148507718</v>
+      </c>
+      <c r="E74">
+        <v>0.004399004702906198</v>
+      </c>
+      <c r="F74">
+        <v>-0.007676365896045819</v>
+      </c>
+      <c r="G74">
+        <v>-0.04111219584513757</v>
+      </c>
+      <c r="H74">
+        <v>0.1196562599314354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09391483596391394</v>
+        <v>0.09979643728385341</v>
       </c>
       <c r="C75">
-        <v>0.05617024167281953</v>
+        <v>-0.02998460340514853</v>
       </c>
       <c r="D75">
-        <v>-0.006358420744408066</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01475006641783284</v>
+      </c>
+      <c r="E75">
+        <v>-0.01046905947877606</v>
+      </c>
+      <c r="F75">
+        <v>0.02702686983554385</v>
+      </c>
+      <c r="G75">
+        <v>-0.01324122241592801</v>
+      </c>
+      <c r="H75">
+        <v>0.1167230449106316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1297098593390383</v>
+        <v>0.1395743432647761</v>
       </c>
       <c r="C76">
-        <v>0.08549280034301159</v>
+        <v>-0.0567354018025092</v>
       </c>
       <c r="D76">
-        <v>-0.04941324595131363</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05151952171617014</v>
+      </c>
+      <c r="E76">
+        <v>-0.03378713847269677</v>
+      </c>
+      <c r="F76">
+        <v>0.04360303181900143</v>
+      </c>
+      <c r="G76">
+        <v>0.005706843673458482</v>
+      </c>
+      <c r="H76">
+        <v>0.1832436945581664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1146335207021861</v>
+        <v>0.111256483049083</v>
       </c>
       <c r="C77">
-        <v>0.02254073039625978</v>
+        <v>0.003197775029435969</v>
       </c>
       <c r="D77">
-        <v>-0.05010081092181932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01938320283839007</v>
+      </c>
+      <c r="E77">
+        <v>-0.02566386390859663</v>
+      </c>
+      <c r="F77">
+        <v>0.1331635625811943</v>
+      </c>
+      <c r="G77">
+        <v>0.8846510322151122</v>
+      </c>
+      <c r="H77">
+        <v>-0.1721481886181058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09923046094143731</v>
+        <v>0.1389710933875731</v>
       </c>
       <c r="C78">
-        <v>0.04123585391042664</v>
+        <v>-0.03364139633874015</v>
       </c>
       <c r="D78">
-        <v>-0.08281337217887963</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08506357182491227</v>
+      </c>
+      <c r="E78">
+        <v>-0.05928059980113555</v>
+      </c>
+      <c r="F78">
+        <v>0.03457995607767381</v>
+      </c>
+      <c r="G78">
+        <v>0.07003231167970965</v>
+      </c>
+      <c r="H78">
+        <v>-0.0563099037780434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1465306919965784</v>
+        <v>0.1518180749069035</v>
       </c>
       <c r="C79">
-        <v>0.08073497335542308</v>
+        <v>-0.04514123877982482</v>
       </c>
       <c r="D79">
-        <v>-0.02446935026452724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02776114701100874</v>
+      </c>
+      <c r="E79">
+        <v>0.01223567854743533</v>
+      </c>
+      <c r="F79">
+        <v>0.01871177467454552</v>
+      </c>
+      <c r="G79">
+        <v>-0.01860435653749331</v>
+      </c>
+      <c r="H79">
+        <v>0.1812834324089203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04546702482367956</v>
+        <v>0.0430129617257362</v>
       </c>
       <c r="C80">
-        <v>0.0152636354727211</v>
+        <v>-0.005051401142781898</v>
       </c>
       <c r="D80">
-        <v>-0.02861653489040017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01892714852148523</v>
+      </c>
+      <c r="E80">
+        <v>0.006366035961577557</v>
+      </c>
+      <c r="F80">
+        <v>-0.005315807200902867</v>
+      </c>
+      <c r="G80">
+        <v>-0.03526793666847299</v>
+      </c>
+      <c r="H80">
+        <v>0.03890829960904971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1143987934227391</v>
+        <v>0.119940970969308</v>
       </c>
       <c r="C81">
-        <v>0.06604006520799321</v>
+        <v>-0.0380010818278003</v>
       </c>
       <c r="D81">
-        <v>-0.02646733658970555</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0232064099107598</v>
+      </c>
+      <c r="E81">
+        <v>-0.02846796072148924</v>
+      </c>
+      <c r="F81">
+        <v>0.01273682630228538</v>
+      </c>
+      <c r="G81">
+        <v>-0.04551947518364183</v>
+      </c>
+      <c r="H81">
+        <v>0.1504837300353723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1304997506950964</v>
+        <v>0.1312050471991277</v>
       </c>
       <c r="C82">
-        <v>0.08282081663610392</v>
+        <v>-0.05170490009053102</v>
       </c>
       <c r="D82">
-        <v>-0.01448653773077281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0281790149904521</v>
+      </c>
+      <c r="E82">
+        <v>0.008234826660911767</v>
+      </c>
+      <c r="F82">
+        <v>0.05711604928697756</v>
+      </c>
+      <c r="G82">
+        <v>-0.03137020933759372</v>
+      </c>
+      <c r="H82">
+        <v>0.2051259756402518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07937405526338266</v>
+        <v>0.08815473329458839</v>
       </c>
       <c r="C83">
-        <v>-0.003993130590292658</v>
+        <v>0.02056229535766118</v>
       </c>
       <c r="D83">
-        <v>-0.02511954965916756</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03448496101324661</v>
+      </c>
+      <c r="E83">
+        <v>-0.02856971995690643</v>
+      </c>
+      <c r="F83">
+        <v>0.05592659047741062</v>
+      </c>
+      <c r="G83">
+        <v>-0.08513095969604569</v>
+      </c>
+      <c r="H83">
+        <v>-0.0610026231465133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02812716338221504</v>
+        <v>0.0371312621233441</v>
       </c>
       <c r="C84">
-        <v>0.02667532424799971</v>
+        <v>-0.02072946016854824</v>
       </c>
       <c r="D84">
-        <v>-0.03229468720035299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02943070924638193</v>
+      </c>
+      <c r="E84">
+        <v>-0.01788908189604151</v>
+      </c>
+      <c r="F84">
+        <v>-0.05766228437269008</v>
+      </c>
+      <c r="G84">
+        <v>-0.06661032112471339</v>
+      </c>
+      <c r="H84">
+        <v>0.004590836362531415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1189840552543008</v>
+        <v>0.1197963704680819</v>
       </c>
       <c r="C85">
-        <v>0.06140053988673125</v>
+        <v>-0.03080804742288507</v>
       </c>
       <c r="D85">
-        <v>-0.01966416981853584</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02505613870290442</v>
+      </c>
+      <c r="E85">
+        <v>-0.02474534547895958</v>
+      </c>
+      <c r="F85">
+        <v>0.03951310751429876</v>
+      </c>
+      <c r="G85">
+        <v>-0.0122633465205975</v>
+      </c>
+      <c r="H85">
+        <v>0.1554431157870403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0494066147237474</v>
+        <v>0.05794137803428052</v>
       </c>
       <c r="C86">
-        <v>0.03053156052734081</v>
+        <v>-0.02025551825035844</v>
       </c>
       <c r="D86">
-        <v>-0.02241949723620323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02425763982122527</v>
+      </c>
+      <c r="E86">
+        <v>-0.06389493803736415</v>
+      </c>
+      <c r="F86">
+        <v>0.02240008491636967</v>
+      </c>
+      <c r="G86">
+        <v>-0.01808352868169463</v>
+      </c>
+      <c r="H86">
+        <v>-0.002734020141690713</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1214715946452427</v>
+        <v>0.1226920799505737</v>
       </c>
       <c r="C87">
-        <v>0.07252007667225922</v>
+        <v>-0.03734919897773175</v>
       </c>
       <c r="D87">
-        <v>-0.07851482942428904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07326592759180503</v>
+      </c>
+      <c r="E87">
+        <v>-0.02075269984194392</v>
+      </c>
+      <c r="F87">
+        <v>-0.005662163148845828</v>
+      </c>
+      <c r="G87">
+        <v>0.1113907732361484</v>
+      </c>
+      <c r="H87">
+        <v>-0.0423424496690291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05286133127256627</v>
+        <v>0.06023815914661658</v>
       </c>
       <c r="C88">
-        <v>0.02987553420158756</v>
+        <v>-0.01913625605091868</v>
       </c>
       <c r="D88">
-        <v>-0.01833231919306197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03044314554166283</v>
+      </c>
+      <c r="E88">
+        <v>-0.0206879919491832</v>
+      </c>
+      <c r="F88">
+        <v>0.00528691119344606</v>
+      </c>
+      <c r="G88">
+        <v>0.008765243044995699</v>
+      </c>
+      <c r="H88">
+        <v>0.05303043528493252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07946693059293873</v>
+        <v>0.09117780935018785</v>
       </c>
       <c r="C89">
-        <v>0.06716767350930455</v>
+        <v>-0.0774120864104568</v>
       </c>
       <c r="D89">
-        <v>0.3247988612978375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3456959962387207</v>
+      </c>
+      <c r="E89">
+        <v>-0.07220682602561701</v>
+      </c>
+      <c r="F89">
+        <v>0.08043385389146022</v>
+      </c>
+      <c r="G89">
+        <v>-0.01966214941551936</v>
+      </c>
+      <c r="H89">
+        <v>0.005420593661284128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07178033523666431</v>
+        <v>0.07821938144944889</v>
       </c>
       <c r="C90">
-        <v>0.0599065120524082</v>
+        <v>-0.06730672998698724</v>
       </c>
       <c r="D90">
-        <v>0.3267550033250612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3117444125166721</v>
+      </c>
+      <c r="E90">
+        <v>-0.05863465978350905</v>
+      </c>
+      <c r="F90">
+        <v>0.001689957880881984</v>
+      </c>
+      <c r="G90">
+        <v>-0.004217515714861884</v>
+      </c>
+      <c r="H90">
+        <v>0.005824900065162425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08406473030805786</v>
+        <v>0.08938293662788338</v>
       </c>
       <c r="C91">
-        <v>0.05489272138201755</v>
+        <v>-0.03350168808670286</v>
       </c>
       <c r="D91">
-        <v>-0.0331286778158423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03035511016382646</v>
+      </c>
+      <c r="E91">
+        <v>-0.01693409044405217</v>
+      </c>
+      <c r="F91">
+        <v>0.003432835798875023</v>
+      </c>
+      <c r="G91">
+        <v>-0.05223295153293858</v>
+      </c>
+      <c r="H91">
+        <v>0.08143136862129763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07278568213513148</v>
+        <v>0.07865761536572452</v>
       </c>
       <c r="C92">
-        <v>0.07148545425313696</v>
+        <v>-0.07910530798657719</v>
       </c>
       <c r="D92">
-        <v>0.344439682029875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.344899012734005</v>
+      </c>
+      <c r="E92">
+        <v>-0.04537027323199293</v>
+      </c>
+      <c r="F92">
+        <v>0.04060711837082566</v>
+      </c>
+      <c r="G92">
+        <v>0.007512279576461169</v>
+      </c>
+      <c r="H92">
+        <v>0.02343979556021098</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06438956898329379</v>
+        <v>0.07600979875810918</v>
       </c>
       <c r="C93">
-        <v>0.06407620727972034</v>
+        <v>-0.0772625765746888</v>
       </c>
       <c r="D93">
-        <v>0.3204997238856052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3076595796090473</v>
+      </c>
+      <c r="E93">
+        <v>-0.03686855195881842</v>
+      </c>
+      <c r="F93">
+        <v>0.03872183053254993</v>
+      </c>
+      <c r="G93">
+        <v>0.01009381625251145</v>
+      </c>
+      <c r="H93">
+        <v>-0.008794250323133648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1325011883449684</v>
+        <v>0.1265939594859004</v>
       </c>
       <c r="C94">
-        <v>0.05974290106263641</v>
+        <v>-0.02285551367662581</v>
       </c>
       <c r="D94">
-        <v>-0.03852947544884979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04766254454282768</v>
+      </c>
+      <c r="E94">
+        <v>0.0008494759130784033</v>
+      </c>
+      <c r="F94">
+        <v>0.02032409478191151</v>
+      </c>
+      <c r="G94">
+        <v>-0.05117976729654224</v>
+      </c>
+      <c r="H94">
+        <v>0.1018346980383033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1192784654133156</v>
+        <v>0.1289840943394291</v>
       </c>
       <c r="C95">
-        <v>0.03561248656725832</v>
+        <v>-0.008460734577177569</v>
       </c>
       <c r="D95">
-        <v>-0.05412318731959299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06271257208929136</v>
+      </c>
+      <c r="E95">
+        <v>-0.01323809654993511</v>
+      </c>
+      <c r="F95">
+        <v>0.04509116965730568</v>
+      </c>
+      <c r="G95">
+        <v>-0.01202442629587633</v>
+      </c>
+      <c r="H95">
+        <v>-0.03234401090168808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2028430844394227</v>
+        <v>0.209307981826147</v>
       </c>
       <c r="C97">
-        <v>0.04133895549947355</v>
+        <v>-0.002327520331665424</v>
       </c>
       <c r="D97">
-        <v>0.0674868261009758</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.09215293009220925</v>
+      </c>
+      <c r="E97">
+        <v>0.3404127675961428</v>
+      </c>
+      <c r="F97">
+        <v>-0.8549076232441254</v>
+      </c>
+      <c r="G97">
+        <v>0.0925805226279476</v>
+      </c>
+      <c r="H97">
+        <v>0.004056106205174167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2442427572051074</v>
+        <v>0.274975530235547</v>
       </c>
       <c r="C98">
-        <v>0.0783972005647558</v>
+        <v>-0.03422464289126669</v>
       </c>
       <c r="D98">
-        <v>-0.04846509370894485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05970995111983201</v>
+      </c>
+      <c r="E98">
+        <v>0.1647041448191009</v>
+      </c>
+      <c r="F98">
+        <v>0.08710362726458243</v>
+      </c>
+      <c r="G98">
+        <v>-0.2683219724382964</v>
+      </c>
+      <c r="H98">
+        <v>-0.2274142896716622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4613552650354226</v>
+        <v>0.2861413907337779</v>
       </c>
       <c r="C99">
-        <v>-0.8711668550305751</v>
+        <v>0.9352046499743917</v>
       </c>
       <c r="D99">
-        <v>0.05234446743436186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1254684202167266</v>
+      </c>
+      <c r="E99">
+        <v>-0.06792945980110095</v>
+      </c>
+      <c r="F99">
+        <v>0.04449801079128729</v>
+      </c>
+      <c r="G99">
+        <v>-0.01234904131803609</v>
+      </c>
+      <c r="H99">
+        <v>0.06711295117147202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03984464530801293</v>
+        <v>0.04793603499019129</v>
       </c>
       <c r="C101">
-        <v>0.03107368375896492</v>
+        <v>-0.02576723562298325</v>
       </c>
       <c r="D101">
-        <v>2.673459416111103e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006069265715020958</v>
+      </c>
+      <c r="E101">
+        <v>-0.05642567856176987</v>
+      </c>
+      <c r="F101">
+        <v>-0.003969762257470283</v>
+      </c>
+      <c r="G101">
+        <v>-0.005730141873263805</v>
+      </c>
+      <c r="H101">
+        <v>0.07891176268376866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
